--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-media-endoscopy.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-media-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="261">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>内視鏡検査で取得または使用される画像、映像、音声に関わる情報。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1305,13 +1301,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1331,10 +1327,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1345,28 +1341,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1416,13 +1412,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1454,10 +1450,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1468,25 +1464,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1537,19 +1533,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1575,10 +1571,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1589,28 +1585,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1660,19 +1656,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1698,10 +1694,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1712,7 +1708,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1724,16 +1720,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1759,43 +1755,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1821,21 +1817,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1847,16 +1843,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1906,25 +1902,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -1944,14 +1940,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1970,16 +1966,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2029,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2047,7 +2043,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2067,14 +2063,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2093,16 +2089,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2152,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2164,13 +2160,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2190,14 +2186,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2210,25 +2206,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2277,7 +2273,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2289,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2315,10 +2311,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2332,25 +2328,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2400,7 +2396,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2412,19 +2408,19 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>38</v>
@@ -2438,14 +2434,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2461,22 +2457,22 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -2525,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2537,13 +2533,13 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
@@ -2563,14 +2559,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2586,22 +2582,22 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2650,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2662,13 +2658,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -2688,10 +2684,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2699,31 +2695,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2749,58 +2745,58 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -2811,10 +2807,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2825,31 +2821,31 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2874,52 +2870,52 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -2936,10 +2932,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2950,28 +2946,28 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2997,55 +2993,55 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3059,10 +3055,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3073,28 +3069,28 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3120,49 +3116,49 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3182,10 +3178,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3196,28 +3192,28 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="I17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3267,31 +3263,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3305,45 +3301,45 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3392,28 +3388,28 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3430,42 +3426,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3515,28 +3511,28 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3553,10 +3549,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3567,28 +3563,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3638,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -3676,10 +3672,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3690,28 +3686,28 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3761,31 +3757,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -3799,10 +3795,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3822,19 +3818,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3860,14 +3856,14 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
       </c>
@@ -3884,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3896,16 +3892,16 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
@@ -3922,10 +3918,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3936,28 +3932,28 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3983,72 +3979,72 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4059,28 +4055,28 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4130,31 +4126,31 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4168,10 +4164,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4182,28 +4178,28 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4253,48 +4249,48 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4305,28 +4301,28 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4376,31 +4372,31 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -4414,10 +4410,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4428,28 +4424,28 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4499,31 +4495,31 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4537,10 +4533,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4551,28 +4547,28 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4622,25 +4618,25 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -4660,10 +4656,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4674,28 +4670,28 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4745,31 +4741,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -4783,10 +4779,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4794,31 +4790,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4868,25 +4864,25 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -4906,10 +4902,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4932,16 +4928,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4991,7 +4987,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5003,22 +4999,22 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
